--- a/data/clean/apart_overview.xlsx
+++ b/data/clean/apart_overview.xlsx
@@ -465,12 +465,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vitoria-Gasteiz</t>
+          <t>Vitoria-Gasteiz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total categorías</t>
+          <t>Total categorías</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vitoria-Gasteiz</t>
+          <t>Vitoria-Gasteiz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total categorías</t>
+          <t>Total categorías</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vitoria-Gasteiz</t>
+          <t>Vitoria-Gasteiz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total categorías</t>
+          <t>Total categorías</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -528,12 +528,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vitoria-Gasteiz</t>
+          <t>Vitoria-Gasteiz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total categorías</t>
+          <t>Total categorías</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -549,12 +549,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vitoria-Gasteiz</t>
+          <t>Vitoria-Gasteiz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total categorías</t>
+          <t>Total categorías</t>
         </is>
       </c>
       <c r="D6" t="n">
